--- a/excel/classwork/Conditional_Formating_lopa.xlsx
+++ b/excel/classwork/Conditional_Formating_lopa.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anudip\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58314A2A-2F93-4746-8C0D-4E591F5F0D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{0BB6C92E-5589-4F61-914E-DBB4E8EB8665}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +13,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="19">
   <si>
     <t>Product</t>
   </si>
@@ -68,13 +62,31 @@
   </si>
   <si>
     <t>conditional formating-&gt;new rule-&gt;top or buttom option</t>
+  </si>
+  <si>
+    <t>1. Apply conditional formatting to highlight cells in the Sales column (D) with values greater than or equal to 150. </t>
+  </si>
+  <si>
+    <t> 2. Apply conditional formatting to highlight the entire row for entries where the Product is "Product A". </t>
+  </si>
+  <si>
+    <t> 3. Apply conditional formatting to highlight cells in the Date column (C) that fall within January 2024. </t>
+  </si>
+  <si>
+    <t> 4. Apply conditional formatting to highlight the top 3 sales values in the Sales column (D). </t>
+  </si>
+  <si>
+    <t> 5. Apply conditional formatting to highlight sales for "Product B" in the "North" region.</t>
+  </si>
+  <si>
+    <t>Conditional Formating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +102,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +152,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,20 +200,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -154,6 +266,27 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i/>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -161,9 +294,19 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -182,150 +325,19 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i/>
         <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="7" tint="-0.24994659260841701"/>
       </font>
     </dxf>
   </dxfs>
@@ -384,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -436,7 +448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -630,23 +642,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94B7D71-EC64-4FB2-B196-3401AE7F50D2}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,8 +674,13 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -674,7 +694,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -687,8 +707,21 @@
       <c r="D3" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -702,7 +735,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -716,7 +749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -730,7 +763,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,7 +777,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -758,7 +791,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,179 +805,666 @@
         <v>80</v>
       </c>
     </row>
+    <row r="11" spans="1:16" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D12" s="1">
+        <v>120</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45293</v>
+      </c>
+      <c r="D13" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45294</v>
+      </c>
+      <c r="D14" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45295</v>
+      </c>
+      <c r="D15" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45296</v>
+      </c>
+      <c r="D16" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45297</v>
+      </c>
+      <c r="D17" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45298</v>
+      </c>
+      <c r="D18" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45299</v>
+      </c>
+      <c r="D19" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D22" s="1">
+        <v>120</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45293</v>
+      </c>
+      <c r="D23" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45294</v>
+      </c>
+      <c r="D24" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45295</v>
+      </c>
+      <c r="D25" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45296</v>
+      </c>
+      <c r="D26" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45297</v>
+      </c>
+      <c r="D27" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45298</v>
+      </c>
+      <c r="D28" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45299</v>
+      </c>
+      <c r="D29" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75">
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="8">
+        <v>45292</v>
+      </c>
+      <c r="D32" s="7">
+        <v>120</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8">
+        <v>45293</v>
+      </c>
+      <c r="D33" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="8">
+        <v>45294</v>
+      </c>
+      <c r="D34" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="8">
+        <v>45295</v>
+      </c>
+      <c r="D35" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8">
+        <v>45296</v>
+      </c>
+      <c r="D36" s="7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="8">
+        <v>45297</v>
+      </c>
+      <c r="D37" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="8">
+        <v>45298</v>
+      </c>
+      <c r="D38" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="8">
+        <v>45299</v>
+      </c>
+      <c r="D39" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D42" s="1">
+        <v>120</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45293</v>
+      </c>
+      <c r="D43" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45294</v>
+      </c>
+      <c r="D44" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45295</v>
+      </c>
+      <c r="D45" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45296</v>
+      </c>
+      <c r="D46" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45297</v>
+      </c>
+      <c r="D47" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45298</v>
+      </c>
+      <c r="D48" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45299</v>
+      </c>
+      <c r="D49" s="1">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
   <conditionalFormatting sqref="D2:D9">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThanOrEqual">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A12:D19">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$A12="Product A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C29">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>45292</formula>
+      <formula>31/1/2024</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D39">
+    <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D49">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($A42="Product B",$B42="North")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF650209-2120-4C37-B104-C3D0CE72EDA3}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1">
       <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45292</v>
-      </c>
-      <c r="D2" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45293</v>
-      </c>
-      <c r="D3" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45294</v>
-      </c>
-      <c r="D4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45295</v>
-      </c>
-      <c r="D5" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45296</v>
-      </c>
-      <c r="D6" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45297</v>
-      </c>
-      <c r="D7" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45298</v>
-      </c>
-      <c r="D8" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45299</v>
-      </c>
-      <c r="D9" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="K11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D9">
-    <cfRule type="top10" dxfId="7" priority="1" rank="3"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B9E4D-77DB-408F-84E3-A7676569CA29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -958,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -972,7 +1492,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -986,7 +1506,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1000,7 +1520,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1534,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1548,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1562,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1576,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +1592,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="between">
       <formula>45292</formula>
       <formula>31/1/2024</formula>
     </cfRule>
@@ -1082,298 +1602,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48549193-53B0-4E8E-9B1E-67D99D3EB588}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45292</v>
-      </c>
-      <c r="D2" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45293</v>
-      </c>
-      <c r="D3" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45294</v>
-      </c>
-      <c r="D4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45295</v>
-      </c>
-      <c r="D5" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45296</v>
-      </c>
-      <c r="D6" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45297</v>
-      </c>
-      <c r="D7" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45298</v>
-      </c>
-      <c r="D8" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45299</v>
-      </c>
-      <c r="D9" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:D9">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>$A2="Product A"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA28219-4591-4777-BEB8-FE8751422157}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45292</v>
-      </c>
-      <c r="D2" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45293</v>
-      </c>
-      <c r="D3" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45294</v>
-      </c>
-      <c r="D4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45295</v>
-      </c>
-      <c r="D5" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45296</v>
-      </c>
-      <c r="D6" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45297</v>
-      </c>
-      <c r="D7" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45298</v>
-      </c>
-      <c r="D8" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45299</v>
-      </c>
-      <c r="D9" s="1">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D9">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AND($A2="Product B",$B2="North")</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>